--- a/src/main/webapp/excel/随工单.xlsx
+++ b/src/main/webapp/excel/随工单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="1">
   <si>
     <t>产品编号：</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>#将检验合格的成品入库1</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
 </sst>
 </file>
@@ -895,7 +898,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1285,12 +1288,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.75" customWidth="1"/>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="3" max="3" width="7.375" customWidth="1"/>
-    <col min="4" max="4" width="8.75" customWidth="1"/>
-    <col min="5" max="5" width="10.25" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="6.75" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="7.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="7.375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.75" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.25" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:9">
@@ -1298,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1399,7 +1402,9 @@
       <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="H4" s="3" t="s">
         <v>5</v>
       </c>

--- a/src/main/webapp/excel/随工单.xlsx
+++ b/src/main/webapp/excel/随工单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5685" yWindow="5805" windowWidth="17535" windowHeight="6240"/>
+    <workbookView windowWidth="24135" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
   <si>
     <t>产品编号：</t>
   </si>
@@ -64,6 +64,12 @@
     <t>#发料1</t>
   </si>
   <si>
+    <t>#发料2</t>
+  </si>
+  <si>
+    <t>#发料3</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -76,6 +82,12 @@
     <t>#血压板安装1</t>
   </si>
   <si>
+    <t>#血压板安装2</t>
+  </si>
+  <si>
+    <t>#血压板安装3</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -88,6 +100,12 @@
     <t>#插座组安装工艺1</t>
   </si>
   <si>
+    <t>#插座组安装工艺2</t>
+  </si>
+  <si>
+    <t>#插座组安装工艺3</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -100,6 +118,12 @@
     <t>#前壳安装1</t>
   </si>
   <si>
+    <t>#前壳安装2</t>
+  </si>
+  <si>
+    <t>#前壳安装3</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -112,6 +136,12 @@
     <t>#主板组安装1</t>
   </si>
   <si>
+    <t>#主板组安装2</t>
+  </si>
+  <si>
+    <t>#主板组安装3</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
@@ -124,6 +154,12 @@
     <t>#后壳安装1</t>
   </si>
   <si>
+    <t>#后壳安装2</t>
+  </si>
+  <si>
+    <t>#后壳安装3</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
@@ -136,6 +172,12 @@
     <t>#整机安装（一）1</t>
   </si>
   <si>
+    <t>#整机安装（一）2</t>
+  </si>
+  <si>
+    <t>#整机安装（一）3</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
@@ -148,6 +190,12 @@
     <t>#整机安装（二）1</t>
   </si>
   <si>
+    <t>#整机安装（二）2</t>
+  </si>
+  <si>
+    <t>#整机安装（二）3</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
@@ -160,12 +208,24 @@
     <t>#工序自检1</t>
   </si>
   <si>
+    <t>#工序自检2</t>
+  </si>
+  <si>
+    <t>#工序自检3</t>
+  </si>
+  <si>
     <t>$审核：</t>
   </si>
   <si>
     <t>#审核：1</t>
   </si>
   <si>
+    <t>#审核：2</t>
+  </si>
+  <si>
+    <t>#审核：3</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -175,6 +235,12 @@
     <t>#整机调试△1</t>
   </si>
   <si>
+    <t>#整机调试△2</t>
+  </si>
+  <si>
+    <t>#整机调试△3</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
@@ -184,6 +250,12 @@
     <t>#关键工序检验1</t>
   </si>
   <si>
+    <t>#关键工序检验2</t>
+  </si>
+  <si>
+    <t>#关键工序检验3</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
@@ -196,8 +268,10 @@
     <t>#24小时常温加电老化1</t>
   </si>
   <si>
-    <t>起： /  /  /  /
-终： /  /  /  /</t>
+    <t>#24小时常温加电老化2</t>
+  </si>
+  <si>
+    <t>@24小时常温加电老化3</t>
   </si>
   <si>
     <t>13</t>
@@ -212,12 +286,24 @@
     <t>#半成品整机检验1</t>
   </si>
   <si>
+    <t>#半成品整机检验2</t>
+  </si>
+  <si>
+    <t>#半成品整机检验3</t>
+  </si>
+  <si>
     <t>$成品检验</t>
   </si>
   <si>
     <t>#成品检验1</t>
   </si>
   <si>
+    <t>#成品检验2</t>
+  </si>
+  <si>
+    <t>#成品检验3</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
@@ -228,13 +314,25 @@
   </si>
   <si>
     <t>#将检验合格的成品入库1</t>
+  </si>
+  <si>
+    <t>#将检验合格的成品入库2</t>
+  </si>
+  <si>
+    <t>#将检验合格的成品入库3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,21 +341,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -295,17 +717,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -317,63 +728,363 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -664,56 +1375,56 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H4"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="13.5" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="6.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="27" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -747,7 +1458,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -765,25 +1476,23 @@
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="G3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="6"/>
       <c r="I3" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="27">
-      <c r="A4" s="5" t="s">
-        <v>16</v>
+    <row r="4" ht="27" spans="1:9">
+      <c r="A4" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>5</v>
@@ -792,25 +1501,25 @@
         <v>5</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="6"/>
       <c r="I4" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="40.5">
-      <c r="A5" s="5" t="s">
-        <v>20</v>
+    <row r="5" ht="40.5" spans="1:9">
+      <c r="A5" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>5</v>
@@ -819,27 +1528,25 @@
         <v>5</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="6"/>
       <c r="I5" s="3" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="27">
-      <c r="A6" s="5" t="s">
-        <v>24</v>
+    <row r="6" ht="27" spans="1:9">
+      <c r="A6" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>5</v>
@@ -848,27 +1555,25 @@
         <v>5</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="6"/>
       <c r="I6" s="3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27">
-      <c r="A7" s="5" t="s">
-        <v>28</v>
+    <row r="7" ht="27" spans="1:9">
+      <c r="A7" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
@@ -877,27 +1582,25 @@
         <v>5</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="6"/>
       <c r="I7" s="3" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="27">
-      <c r="A8" s="5" t="s">
-        <v>32</v>
+    <row r="8" ht="27" spans="1:9">
+      <c r="A8" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>5</v>
@@ -906,27 +1609,25 @@
         <v>5</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="6"/>
       <c r="I8" s="3" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="40.5">
-      <c r="A9" s="5" t="s">
-        <v>36</v>
+    <row r="9" ht="40.5" spans="1:9">
+      <c r="A9" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>5</v>
@@ -935,27 +1636,25 @@
         <v>5</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="6"/>
       <c r="I9" s="3" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="40.5">
-      <c r="A10" s="5" t="s">
-        <v>40</v>
+    <row r="10" ht="40.5" spans="1:9">
+      <c r="A10" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>5</v>
@@ -964,27 +1663,25 @@
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="6"/>
       <c r="I10" s="3" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="54" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>44</v>
+    <row r="11" ht="54" customHeight="1" spans="1:9">
+      <c r="A11" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>5</v>
@@ -993,114 +1690,106 @@
         <v>5</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="6"/>
       <c r="I11" s="3" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="A12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="6"/>
       <c r="I12" s="3" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="27">
-      <c r="A13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="14" t="s">
+    <row r="13" ht="27" spans="1:9">
+      <c r="A13" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>5</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="6"/>
       <c r="I13" s="3" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="27">
-      <c r="A14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="8" t="s">
+    <row r="14" ht="27" spans="1:9">
+      <c r="A14" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="6"/>
       <c r="I14" s="3" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="44.1" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>56</v>
+    <row r="15" ht="44.1" customHeight="1" spans="1:9">
+      <c r="A15" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>5</v>
@@ -1109,27 +1798,25 @@
         <v>5</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="6"/>
       <c r="I15" s="3" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="40.5">
-      <c r="A16" s="5" t="s">
-        <v>61</v>
+    <row r="16" ht="40.5" spans="1:9">
+      <c r="A16" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>5</v>
@@ -1138,19 +1825,17 @@
         <v>5</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="6"/>
       <c r="I16" s="3" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27">
+    <row r="17" ht="27" spans="1:9">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -1158,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>5</v>
@@ -1167,27 +1852,25 @@
         <v>5</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="6"/>
       <c r="I17" s="3" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="40.5">
-      <c r="A18" s="5" t="s">
-        <v>67</v>
+    <row r="18" ht="40.5" spans="1:9">
+      <c r="A18" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>5</v>
@@ -1196,56 +1879,55 @@
         <v>5</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="6"/>
       <c r="I18" s="3" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="G18:H18"/>
+  <mergeCells count="34">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="G18:H18"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>